--- a/data/trans_orig/P14A14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A14-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4213DFF2-5313-4C1B-B956-FEFD5B2310CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66E89DB-DAED-4F42-A5CF-47CCA6E5028B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F225B15D-D6FC-4DE7-9783-80D9F313BC4D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D068EB40-4CCC-4266-A234-1BC48F21024B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="167">
   <si>
     <t>Población que recibe medicación o terapia por fibromialgia en 2012 (Tasa respuesta: 1,41%)</t>
   </si>
@@ -111,19 +111,19 @@
     <t>84,27%</t>
   </si>
   <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>79,91%</t>
   </si>
   <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -132,19 +132,19 @@
     <t>15,73%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -156,7 +156,7 @@
     <t>94,47%</t>
   </si>
   <si>
-    <t>72,19%</t>
+    <t>72,67%</t>
   </si>
   <si>
     <t>91,01%</t>
@@ -171,7 +171,7 @@
     <t>5,53%</t>
   </si>
   <si>
-    <t>27,81%</t>
+    <t>27,33%</t>
   </si>
   <si>
     <t>8,99%</t>
@@ -186,31 +186,31 @@
     <t>88,25%</t>
   </si>
   <si>
-    <t>65,01%</t>
+    <t>64,55%</t>
   </si>
   <si>
     <t>83,02%</t>
   </si>
   <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>34,99%</t>
+    <t>35,45%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -222,16 +222,16 @@
     <t>86,56%</t>
   </si>
   <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>71,89%</t>
+    <t>73,12%</t>
   </si>
   <si>
     <t>96,74%</t>
@@ -243,10 +243,10 @@
     <t>13,44%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
   </si>
   <si>
     <t>12,6%</t>
@@ -255,61 +255,61 @@
     <t>3,26%</t>
   </si>
   <si>
-    <t>28,11%</t>
+    <t>26,88%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>42,3%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -333,31 +333,37 @@
     <t>84,37%</t>
   </si>
   <si>
-    <t>63,44%</t>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>85,85%</t>
   </si>
   <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>36,56%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
   </si>
   <si>
     <t>14,15%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
   </si>
   <si>
     <t>32,92%</t>
@@ -366,19 +372,19 @@
     <t>80,05%</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
   </si>
   <si>
     <t>67,08%</t>
@@ -387,19 +393,19 @@
     <t>19,95%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
   </si>
   <si>
     <t>52,31%</t>
@@ -408,7 +414,7 @@
     <t>86,78%</t>
   </si>
   <si>
-    <t>67,94%</t>
+    <t>65,1%</t>
   </si>
   <si>
     <t>96,03%</t>
@@ -417,10 +423,10 @@
     <t>84,23%</t>
   </si>
   <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>47,69%</t>
@@ -432,106 +438,106 @@
     <t>3,97%</t>
   </si>
   <si>
-    <t>32,06%</t>
+    <t>34,9%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>81,55%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>21,44%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
   </si>
   <si>
     <t>18,45%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>82,55%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
 </sst>
 </file>
@@ -943,7 +949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463341FE-D123-4D65-84FF-20E86F981703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C294A0-FC70-473C-96A7-3C0AD4AA6F38}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2000,7 +2006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABB077D-CD67-4E32-B352-E40F66932167}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C8D9F0-791C-4688-A2DC-DF54040C8F27}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2300,7 +2306,7 @@
         <v>98</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -2309,13 +2315,13 @@
         <v>19213</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,13 +2351,13 @@
         <v>3168</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2360,13 +2366,13 @@
         <v>3168</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,7 +2440,7 @@
         <v>1086</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
@@ -2449,13 +2455,13 @@
         <v>31961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2464,13 +2470,13 @@
         <v>33047</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,7 +2491,7 @@
         <v>2213</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
@@ -2500,13 +2506,13 @@
         <v>7965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -2515,13 +2521,13 @@
         <v>10178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2595,7 @@
         <v>1060</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>17</v>
@@ -2604,13 +2610,13 @@
         <v>21990</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -2619,13 +2625,13 @@
         <v>23049</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,7 +2646,7 @@
         <v>966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
@@ -2655,13 +2661,13 @@
         <v>3350</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2670,13 +2676,13 @@
         <v>4316</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2765,13 @@
         <v>26897</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -2774,13 +2780,13 @@
         <v>32433</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2816,13 @@
         <v>7339</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -2825,13 +2831,13 @@
         <v>7339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2905,13 @@
         <v>10869</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -2914,13 +2920,13 @@
         <v>103246</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -2929,13 +2935,13 @@
         <v>114115</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2956,13 @@
         <v>3179</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -2965,13 +2971,13 @@
         <v>21822</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -2980,13 +2986,13 @@
         <v>25001</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A14-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66E89DB-DAED-4F42-A5CF-47CCA6E5028B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4A42052-2177-45AA-829E-9BF713F3914D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D068EB40-4CCC-4266-A234-1BC48F21024B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4AD524D0-2A1A-444B-97F9-7A43E5CD0D32}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -78,7 +78,7 @@
     <t>77,19%</t>
   </si>
   <si>
-    <t>26,51%</t>
+    <t>7,5%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,13 +93,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>73,49%</t>
+    <t>92,5%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0%</t>
@@ -111,19 +111,19 @@
     <t>84,27%</t>
   </si>
   <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>79,91%</t>
   </si>
   <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -132,22 +132,22 @@
     <t>15,73%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>68,91%</t>
@@ -156,13 +156,13 @@
     <t>94,47%</t>
   </si>
   <si>
-    <t>72,67%</t>
+    <t>70,48%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>72,98%</t>
+    <t>68,77%</t>
   </si>
   <si>
     <t>31,09%</t>
@@ -171,46 +171,46 @@
     <t>5,53%</t>
   </si>
   <si>
-    <t>27,33%</t>
+    <t>29,52%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>88,25%</t>
   </si>
   <si>
-    <t>64,55%</t>
+    <t>66,21%</t>
   </si>
   <si>
     <t>83,02%</t>
   </si>
   <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>35,45%</t>
+    <t>33,79%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -222,19 +222,19 @@
     <t>86,56%</t>
   </si>
   <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -243,25 +243,25 @@
     <t>13,44%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>27,13%</t>
+    <t>14,4%</t>
   </si>
   <si>
     <t>86,53%</t>
@@ -270,19 +270,19 @@
     <t>87,73%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>42,3%</t>
@@ -291,31 +291,31 @@
     <t>13,47%</t>
   </si>
   <si>
-    <t>72,87%</t>
+    <t>85,6%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por fibromialgia en 2015 (Tasa respuesta: 1,95%)</t>
+    <t>Población que recibe medicación o terapia por fibromialgia en 2016 (Tasa respuesta: 1,95%)</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -333,16 +333,16 @@
     <t>84,37%</t>
   </si>
   <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>85,85%</t>
   </si>
   <si>
-    <t>64,41%</t>
+    <t>65,32%</t>
   </si>
   <si>
     <t>95,9%</t>
@@ -351,10 +351,10 @@
     <t>15,63%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
   </si>
   <si>
     <t>14,15%</t>
@@ -363,7 +363,7 @@
     <t>4,1%</t>
   </si>
   <si>
-    <t>35,59%</t>
+    <t>34,68%</t>
   </si>
   <si>
     <t>32,92%</t>
@@ -372,19 +372,19 @@
     <t>80,05%</t>
   </si>
   <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>67,08%</t>
@@ -393,19 +393,19 @@
     <t>19,95%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>52,31%</t>
@@ -414,19 +414,19 @@
     <t>86,78%</t>
   </si>
   <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>84,23%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>47,69%</t>
@@ -435,109 +435,109 @@
     <t>13,22%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>81,55%</t>
   </si>
   <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>21,44%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>18,45%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>82,55%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
 </sst>
 </file>
@@ -949,7 +949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C294A0-FC70-473C-96A7-3C0AD4AA6F38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3D4B34-0D30-4EC1-A689-059BCDE8309D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2006,7 +2006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C8D9F0-791C-4688-A2DC-DF54040C8F27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFE80C0-4A11-4B6D-BB87-6AD13F4D1638}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
